--- a/cta策略/result/螺纹/SMA_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/SMA_1d/绩效.xlsx
@@ -435,16 +435,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.07687709743887572</v>
+        <v>0.08652964799298313</v>
       </c>
       <c r="D2">
-        <v>0.138123197394978</v>
+        <v>0.2142733631645816</v>
       </c>
       <c r="E2">
-        <v>0.1648216051681832</v>
+        <v>0.1923997405773413</v>
       </c>
       <c r="F2">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,13 +455,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.1581193807801058</v>
+        <v>0.1216751340356623</v>
       </c>
       <c r="D3">
-        <v>0.4437413479632437</v>
+        <v>0.3765956038584725</v>
       </c>
       <c r="E3">
-        <v>0.3727456966452066</v>
+        <v>0.2946775620487698</v>
       </c>
       <c r="F3">
         <v>0.6</v>
@@ -475,13 +475,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1642210255738876</v>
+        <v>0.1233549774924134</v>
       </c>
       <c r="D4">
-        <v>0.4674585186988721</v>
+        <v>0.3843860309513285</v>
       </c>
       <c r="E4">
-        <v>0.4378072548198896</v>
+        <v>0.3400039809505831</v>
       </c>
       <c r="F4">
         <v>0.65</v>
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.09436994137421184</v>
+        <v>0.06906879984779302</v>
       </c>
       <c r="D5">
-        <v>0.2062908380820404</v>
+        <v>0.1350571664368697</v>
       </c>
       <c r="E5">
-        <v>0.1578013354455146</v>
+        <v>0.1169367331330419</v>
       </c>
       <c r="F5">
         <v>0.65</v>
@@ -515,13 +515,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.2074143485699553</v>
+        <v>0.1381820660231483</v>
       </c>
       <c r="D6">
-        <v>0.6439717234727441</v>
+        <v>0.4625486674675408</v>
       </c>
       <c r="E6">
-        <v>0.591397011207994</v>
+        <v>0.3973394794665985</v>
       </c>
       <c r="F6">
         <v>0.65</v>

--- a/cta策略/result/螺纹/SMA_1d/绩效.xlsx
+++ b/cta策略/result/螺纹/SMA_1d/绩效.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>参数</t>
   </si>
@@ -37,16 +37,241 @@
     <t>[5, 10]</t>
   </si>
   <si>
+    <t>[5, 15]</t>
+  </si>
+  <si>
     <t>[5, 20]</t>
   </si>
   <si>
+    <t>[5, 30]</t>
+  </si>
+  <si>
+    <t>[5, 40]</t>
+  </si>
+  <si>
+    <t>[5, 60]</t>
+  </si>
+  <si>
+    <t>[5, 80]</t>
+  </si>
+  <si>
+    <t>[5, 120]</t>
+  </si>
+  <si>
+    <t>[5, 140]</t>
+  </si>
+  <si>
+    <t>[5, 160]</t>
+  </si>
+  <si>
+    <t>[10, 10]</t>
+  </si>
+  <si>
+    <t>[10, 15]</t>
+  </si>
+  <si>
     <t>[10, 20]</t>
   </si>
   <si>
+    <t>[10, 30]</t>
+  </si>
+  <si>
+    <t>[10, 40]</t>
+  </si>
+  <si>
+    <t>[10, 60]</t>
+  </si>
+  <si>
+    <t>[10, 80]</t>
+  </si>
+  <si>
+    <t>[10, 120]</t>
+  </si>
+  <si>
+    <t>[10, 140]</t>
+  </si>
+  <si>
+    <t>[10, 160]</t>
+  </si>
+  <si>
+    <t>[15, 10]</t>
+  </si>
+  <si>
+    <t>[15, 15]</t>
+  </si>
+  <si>
+    <t>[15, 20]</t>
+  </si>
+  <si>
+    <t>[15, 30]</t>
+  </si>
+  <si>
+    <t>[15, 40]</t>
+  </si>
+  <si>
+    <t>[15, 60]</t>
+  </si>
+  <si>
+    <t>[15, 80]</t>
+  </si>
+  <si>
+    <t>[15, 120]</t>
+  </si>
+  <si>
+    <t>[15, 140]</t>
+  </si>
+  <si>
+    <t>[15, 160]</t>
+  </si>
+  <si>
+    <t>[20, 10]</t>
+  </si>
+  <si>
+    <t>[20, 15]</t>
+  </si>
+  <si>
+    <t>[20, 20]</t>
+  </si>
+  <si>
+    <t>[20, 30]</t>
+  </si>
+  <si>
+    <t>[20, 40]</t>
+  </si>
+  <si>
     <t>[20, 60]</t>
   </si>
   <si>
+    <t>[20, 80]</t>
+  </si>
+  <si>
+    <t>[20, 120]</t>
+  </si>
+  <si>
+    <t>[20, 140]</t>
+  </si>
+  <si>
+    <t>[20, 160]</t>
+  </si>
+  <si>
+    <t>[30, 10]</t>
+  </si>
+  <si>
+    <t>[30, 15]</t>
+  </si>
+  <si>
+    <t>[30, 20]</t>
+  </si>
+  <si>
+    <t>[30, 30]</t>
+  </si>
+  <si>
+    <t>[30, 40]</t>
+  </si>
+  <si>
+    <t>[30, 60]</t>
+  </si>
+  <si>
+    <t>[30, 80]</t>
+  </si>
+  <si>
+    <t>[30, 120]</t>
+  </si>
+  <si>
+    <t>[30, 140]</t>
+  </si>
+  <si>
+    <t>[30, 160]</t>
+  </si>
+  <si>
+    <t>[40, 10]</t>
+  </si>
+  <si>
+    <t>[40, 15]</t>
+  </si>
+  <si>
+    <t>[40, 20]</t>
+  </si>
+  <si>
+    <t>[40, 30]</t>
+  </si>
+  <si>
+    <t>[40, 40]</t>
+  </si>
+  <si>
+    <t>[40, 60]</t>
+  </si>
+  <si>
+    <t>[40, 80]</t>
+  </si>
+  <si>
+    <t>[40, 120]</t>
+  </si>
+  <si>
+    <t>[40, 140]</t>
+  </si>
+  <si>
+    <t>[40, 160]</t>
+  </si>
+  <si>
+    <t>[60, 10]</t>
+  </si>
+  <si>
+    <t>[60, 15]</t>
+  </si>
+  <si>
+    <t>[60, 20]</t>
+  </si>
+  <si>
+    <t>[60, 30]</t>
+  </si>
+  <si>
+    <t>[60, 40]</t>
+  </si>
+  <si>
+    <t>[60, 60]</t>
+  </si>
+  <si>
+    <t>[60, 80]</t>
+  </si>
+  <si>
     <t>[60, 120]</t>
+  </si>
+  <si>
+    <t>[60, 140]</t>
+  </si>
+  <si>
+    <t>[60, 160]</t>
+  </si>
+  <si>
+    <t>[80, 10]</t>
+  </si>
+  <si>
+    <t>[80, 15]</t>
+  </si>
+  <si>
+    <t>[80, 20]</t>
+  </si>
+  <si>
+    <t>[80, 30]</t>
+  </si>
+  <si>
+    <t>[80, 40]</t>
+  </si>
+  <si>
+    <t>[80, 60]</t>
+  </si>
+  <si>
+    <t>[80, 80]</t>
+  </si>
+  <si>
+    <t>[80, 120]</t>
+  </si>
+  <si>
+    <t>[80, 140]</t>
+  </si>
+  <si>
+    <t>[80, 160]</t>
   </si>
 </sst>
 </file>
@@ -404,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +660,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.08652964799298313</v>
+        <v>0.05282695959586525</v>
       </c>
       <c r="D2">
-        <v>0.2142733631645816</v>
+        <v>0.05887010436159121</v>
       </c>
       <c r="E2">
-        <v>0.1923997405773413</v>
+        <v>0.1137575650936998</v>
       </c>
       <c r="F2">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -455,13 +680,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0.1216751340356623</v>
+        <v>0.0542992675480547</v>
       </c>
       <c r="D3">
-        <v>0.3765956038584725</v>
+        <v>0.0656480595274911</v>
       </c>
       <c r="E3">
-        <v>0.2946775620487698</v>
+        <v>0.09423073962936192</v>
       </c>
       <c r="F3">
         <v>0.6</v>
@@ -475,16 +700,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.1233549774924134</v>
+        <v>0.104454447642347</v>
       </c>
       <c r="D4">
-        <v>0.3843860309513285</v>
+        <v>0.2966037970532172</v>
       </c>
       <c r="E4">
-        <v>0.3400039809505831</v>
+        <v>0.2471890589016301</v>
       </c>
       <c r="F4">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -495,16 +720,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0.06906879984779302</v>
+        <v>0.1313956624520203</v>
       </c>
       <c r="D5">
-        <v>0.1350571664368697</v>
+        <v>0.4218258346544808</v>
       </c>
       <c r="E5">
-        <v>0.1169367331330419</v>
+        <v>0.4389182233460067</v>
       </c>
       <c r="F5">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -515,16 +740,1516 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.1381820660231483</v>
+        <v>0.1054124395857012</v>
       </c>
       <c r="D6">
-        <v>0.4625486674675408</v>
+        <v>0.3025525425791351</v>
       </c>
       <c r="E6">
-        <v>0.3973394794665985</v>
+        <v>0.2714777830671523</v>
       </c>
       <c r="F6">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.06208647195367534</v>
+      </c>
+      <c r="D7">
+        <v>0.1025121490751636</v>
+      </c>
+      <c r="E7">
+        <v>0.1356919074378733</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0.03888673212039073</v>
+      </c>
+      <c r="D8">
+        <v>-0.005208637353889977</v>
+      </c>
+      <c r="E8">
+        <v>0.07860120211515957</v>
+      </c>
+      <c r="F8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>0.1137446091689613</v>
+      </c>
+      <c r="D9">
+        <v>0.3473997280065632</v>
+      </c>
+      <c r="E9">
+        <v>0.3266022606430257</v>
+      </c>
+      <c r="F9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0.1918388761466234</v>
+      </c>
+      <c r="D10">
+        <v>0.7175695264436437</v>
+      </c>
+      <c r="E10">
+        <v>0.6509975060441566</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>0.2176472761914192</v>
+      </c>
+      <c r="D11">
+        <v>0.8409448981939532</v>
+      </c>
+      <c r="E11">
+        <v>0.7385772729904089</v>
+      </c>
+      <c r="F11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.05591390532023999</v>
+      </c>
+      <c r="D13">
+        <v>0.07320801500966607</v>
+      </c>
+      <c r="E13">
+        <v>0.0907103603113969</v>
+      </c>
+      <c r="F13">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>0.1082759083318774</v>
+      </c>
+      <c r="D14">
+        <v>0.3145231841396563</v>
+      </c>
+      <c r="E14">
+        <v>0.2900852476472176</v>
+      </c>
+      <c r="F14">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0.1457517514683415</v>
+      </c>
+      <c r="D15">
+        <v>0.4886772126813473</v>
+      </c>
+      <c r="E15">
+        <v>0.5044084431716733</v>
+      </c>
+      <c r="F15">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0.08509910703793899</v>
+      </c>
+      <c r="D16">
+        <v>0.2085752539206292</v>
+      </c>
+      <c r="E16">
+        <v>0.2361220743637586</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>0.04956003856525948</v>
+      </c>
+      <c r="D17">
+        <v>0.04439234125813856</v>
+      </c>
+      <c r="E17">
+        <v>0.09377464733188126</v>
+      </c>
+      <c r="F17">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>0.05584823496609159</v>
+      </c>
+      <c r="D18">
+        <v>0.07425037878433642</v>
+      </c>
+      <c r="E18">
+        <v>0.108827736168357</v>
+      </c>
+      <c r="F18">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>0.1457903070228139</v>
+      </c>
+      <c r="D19">
+        <v>0.4989549187749783</v>
+      </c>
+      <c r="E19">
+        <v>0.4209279309658417</v>
+      </c>
+      <c r="F19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>0.1802930646628571</v>
+      </c>
+      <c r="D20">
+        <v>0.6620995905636889</v>
+      </c>
+      <c r="E20">
+        <v>0.6118172594113356</v>
+      </c>
+      <c r="F20">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>0.2236989751624747</v>
+      </c>
+      <c r="D21">
+        <v>0.8699572076908852</v>
+      </c>
+      <c r="E21">
+        <v>0.7591134699105555</v>
+      </c>
+      <c r="F21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>-0.1298662958955533</v>
+      </c>
+      <c r="D22">
+        <v>-0.779283194714659</v>
+      </c>
+      <c r="E22">
+        <v>-0.1570162770982032</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0.06652841395906872</v>
+      </c>
+      <c r="D24">
+        <v>0.1219691239137592</v>
+      </c>
+      <c r="E24">
+        <v>0.180607538543202</v>
+      </c>
+      <c r="F24">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>0.1171470924232736</v>
+      </c>
+      <c r="D25">
+        <v>0.3561826213353278</v>
+      </c>
+      <c r="E25">
+        <v>0.3391963283803687</v>
+      </c>
+      <c r="F25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>0.09064120006859056</v>
+      </c>
+      <c r="D26">
+        <v>0.2343347610684127</v>
+      </c>
+      <c r="E26">
+        <v>0.216655970488771</v>
+      </c>
+      <c r="F26">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>0.05490807365711037</v>
+      </c>
+      <c r="D27">
+        <v>0.06919104849417311</v>
+      </c>
+      <c r="E27">
+        <v>0.09181512845481721</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.02903962743689337</v>
+      </c>
+      <c r="D28">
+        <v>-0.05129929362057913</v>
+      </c>
+      <c r="E28">
+        <v>0.04769126612769373</v>
+      </c>
+      <c r="F28">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>0.1751346900035542</v>
+      </c>
+      <c r="D29">
+        <v>0.6373181603484139</v>
+      </c>
+      <c r="E29">
+        <v>0.5943125225931258</v>
+      </c>
+      <c r="F29">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0.1975818058232013</v>
+      </c>
+      <c r="D30">
+        <v>0.7444496397671742</v>
+      </c>
+      <c r="E30">
+        <v>0.6704859067892793</v>
+      </c>
+      <c r="F30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>0.2220091487139983</v>
+      </c>
+      <c r="D31">
+        <v>0.8618221408108854</v>
+      </c>
+      <c r="E31">
+        <v>0.7533791118612273</v>
+      </c>
+      <c r="F31">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>-0.1631761749631757</v>
+      </c>
+      <c r="D32">
+        <v>-0.932421724072513</v>
+      </c>
+      <c r="E32">
+        <v>-0.2103554392711058</v>
+      </c>
+      <c r="F32">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>-0.1346028361837788</v>
+      </c>
+      <c r="D33">
+        <v>-0.8026375650796762</v>
+      </c>
+      <c r="E33">
+        <v>-0.1899297542543318</v>
+      </c>
+      <c r="F33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>0.04048289875995326</v>
+      </c>
+      <c r="D35">
+        <v>0.0022272552105211</v>
+      </c>
+      <c r="E35">
+        <v>0.09525604136618522</v>
+      </c>
+      <c r="F35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>0.05463914698358963</v>
+      </c>
+      <c r="D36">
+        <v>0.06767084504699991</v>
+      </c>
+      <c r="E36">
+        <v>0.102137687297588</v>
+      </c>
+      <c r="F36">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>0.062924450197408</v>
+      </c>
+      <c r="D37">
+        <v>0.1064734672841834</v>
+      </c>
+      <c r="E37">
+        <v>0.1053739352551478</v>
+      </c>
+      <c r="F37">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>0.03820436461140342</v>
+      </c>
+      <c r="D38">
+        <v>-0.008408735060613057</v>
+      </c>
+      <c r="E38">
+        <v>0.06702555259797707</v>
+      </c>
+      <c r="F38">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0.1667173989364739</v>
+      </c>
+      <c r="D39">
+        <v>0.5976628882754941</v>
+      </c>
+      <c r="E39">
+        <v>0.5657487840934874</v>
+      </c>
+      <c r="F39">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>0.2067054623123541</v>
+      </c>
+      <c r="D40">
+        <v>0.7875609291249926</v>
+      </c>
+      <c r="E40">
+        <v>0.7014466679225042</v>
+      </c>
+      <c r="F40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>0.2147924728696604</v>
+      </c>
+      <c r="D41">
+        <v>0.8274733233917467</v>
+      </c>
+      <c r="E41">
+        <v>0.728889612803683</v>
+      </c>
+      <c r="F41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>-0.1782624842539207</v>
+      </c>
+      <c r="D42">
+        <v>-1.001624840394924</v>
+      </c>
+      <c r="E42">
+        <v>-0.2209660749571941</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>-0.1625935311166667</v>
+      </c>
+      <c r="D43">
+        <v>-0.9303979681643678</v>
+      </c>
+      <c r="E43">
+        <v>-0.2136038451782651</v>
+      </c>
+      <c r="F43">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>-0.09795343225894748</v>
+      </c>
+      <c r="D44">
+        <v>-0.6336180437594598</v>
+      </c>
+      <c r="E44">
+        <v>-0.1390183338032998</v>
+      </c>
+      <c r="F44">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>0.05559083628428807</v>
+      </c>
+      <c r="D46">
+        <v>0.07213522440676158</v>
+      </c>
+      <c r="E46">
+        <v>0.1035442285335919</v>
+      </c>
+      <c r="F46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>0.009469736581280364</v>
+      </c>
+      <c r="D47">
+        <v>-0.1417421761703535</v>
+      </c>
+      <c r="E47">
+        <v>0.01403766112672015</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>0.05924103803424607</v>
+      </c>
+      <c r="D48">
+        <v>0.09012419205538923</v>
+      </c>
+      <c r="E48">
+        <v>0.1075253621116612</v>
+      </c>
+      <c r="F48">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>0.1808292364371382</v>
+      </c>
+      <c r="D49">
+        <v>0.6643367289105205</v>
+      </c>
+      <c r="E49">
+        <v>0.613636736750233</v>
+      </c>
+      <c r="F49">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0.2085938903606757</v>
+      </c>
+      <c r="D50">
+        <v>0.7966858087323663</v>
+      </c>
+      <c r="E50">
+        <v>0.7078549725085959</v>
+      </c>
+      <c r="F50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>0.2122281295106252</v>
+      </c>
+      <c r="D51">
+        <v>0.8153966089390625</v>
+      </c>
+      <c r="E51">
+        <v>0.7201876168114997</v>
+      </c>
+      <c r="F51">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>-0.1271479162928649</v>
+      </c>
+      <c r="D52">
+        <v>-0.7665221127313255</v>
+      </c>
+      <c r="E52">
+        <v>-0.1778237762112961</v>
+      </c>
+      <c r="F52">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>-0.1329534059224463</v>
+      </c>
+      <c r="D53">
+        <v>-0.7932888498858416</v>
+      </c>
+      <c r="E53">
+        <v>-0.1884174166481218</v>
+      </c>
+      <c r="F53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>-0.09714532944969201</v>
+      </c>
+      <c r="D54">
+        <v>-0.6296368871550263</v>
+      </c>
+      <c r="E54">
+        <v>-0.1380699263657748</v>
+      </c>
+      <c r="F54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>-0.1100842722783767</v>
+      </c>
+      <c r="D55">
+        <v>-0.6898782071342412</v>
+      </c>
+      <c r="E55">
+        <v>-0.1586656555224691</v>
+      </c>
+      <c r="F55">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>0.07608414980779754</v>
+      </c>
+      <c r="D57">
+        <v>0.1679131536184268</v>
+      </c>
+      <c r="E57">
+        <v>0.1545325405981373</v>
+      </c>
+      <c r="F57">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>0.05355474694097073</v>
+      </c>
+      <c r="D58">
+        <v>0.0634978007229855</v>
+      </c>
+      <c r="E58">
+        <v>0.09842812871182204</v>
+      </c>
+      <c r="F58">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>0.1949791005342887</v>
+      </c>
+      <c r="D59">
+        <v>0.7318955974021897</v>
+      </c>
+      <c r="E59">
+        <v>0.6616537311318534</v>
+      </c>
+      <c r="F59">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>0.2035207016363683</v>
+      </c>
+      <c r="D60">
+        <v>0.7726034309723273</v>
+      </c>
+      <c r="E60">
+        <v>0.6906393107326616</v>
+      </c>
+      <c r="F60">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>0.1858909226688328</v>
+      </c>
+      <c r="D61">
+        <v>0.6899468175781781</v>
+      </c>
+      <c r="E61">
+        <v>0.5821494477817377</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>-0.09867229444489944</v>
+      </c>
+      <c r="D62">
+        <v>-0.6355502551793393</v>
+      </c>
+      <c r="E62">
+        <v>-0.142225824232007</v>
+      </c>
+      <c r="F62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>-0.1037244201228271</v>
+      </c>
+      <c r="D63">
+        <v>-0.6595014064844512</v>
+      </c>
+      <c r="E63">
+        <v>-0.1401170783137753</v>
+      </c>
+      <c r="F63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>-0.103463035183689</v>
+      </c>
+      <c r="D64">
+        <v>-0.6581892653866961</v>
+      </c>
+      <c r="E64">
+        <v>-0.1357340227401681</v>
+      </c>
+      <c r="F64">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>-0.05715295056120717</v>
+      </c>
+      <c r="D65">
+        <v>-0.4465963622998173</v>
+      </c>
+      <c r="E65">
+        <v>-0.08173859646038935</v>
+      </c>
+      <c r="F65">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>-0.124789908312809</v>
+      </c>
+      <c r="D66">
+        <v>-0.7575732437487122</v>
+      </c>
+      <c r="E66">
+        <v>-0.1755803916601858</v>
+      </c>
+      <c r="F66">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>0.1095314570584538</v>
+      </c>
+      <c r="D68">
+        <v>0.325931710483321</v>
+      </c>
+      <c r="E68">
+        <v>0.3489750121330704</v>
+      </c>
+      <c r="F68">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>0.1348944205029898</v>
+      </c>
+      <c r="D69">
+        <v>0.4467032132704895</v>
+      </c>
+      <c r="E69">
+        <v>0.3848775860135861</v>
+      </c>
+      <c r="F69">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>0.1828280173694217</v>
+      </c>
+      <c r="D70">
+        <v>0.6741261060866226</v>
+      </c>
+      <c r="E70">
+        <v>0.6204195194071247</v>
+      </c>
+      <c r="F70">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>0.1814247091502612</v>
+      </c>
+      <c r="D71">
+        <v>0.6685437419958548</v>
+      </c>
+      <c r="E71">
+        <v>0.5364120961715935</v>
+      </c>
+      <c r="F71">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>-0.1070359655366668</v>
+      </c>
+      <c r="D72">
+        <v>-0.673794118016</v>
+      </c>
+      <c r="E72">
+        <v>-0.1427824822284774</v>
+      </c>
+      <c r="F72">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>-0.08699342404709864</v>
+      </c>
+      <c r="D73">
+        <v>-0.582675108424093</v>
+      </c>
+      <c r="E73">
+        <v>-0.115523305965221</v>
+      </c>
+      <c r="F73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>-0.08812551573472138</v>
+      </c>
+      <c r="D74">
+        <v>-0.5879415769531404</v>
+      </c>
+      <c r="E74">
+        <v>-0.1186857872283711</v>
+      </c>
+      <c r="F74">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>-0.1066600567346702</v>
+      </c>
+      <c r="D75">
+        <v>-0.6743420039769883</v>
+      </c>
+      <c r="E75">
+        <v>-0.1501184216012663</v>
+      </c>
+      <c r="F75">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>-0.1118563279664424</v>
+      </c>
+      <c r="D76">
+        <v>-0.699210569190546</v>
+      </c>
+      <c r="E76">
+        <v>-0.1558590679558879</v>
+      </c>
+      <c r="F76">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>-0.1517879812731764</v>
+      </c>
+      <c r="D77">
+        <v>-0.8868337004174692</v>
+      </c>
+      <c r="E77">
+        <v>-0.205538429379471</v>
+      </c>
+      <c r="F77">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>0.172823504649205</v>
+      </c>
+      <c r="D79">
+        <v>0.6259154365728664</v>
+      </c>
+      <c r="E79">
+        <v>0.5109812154628862</v>
+      </c>
+      <c r="F79">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>0.1854557579814946</v>
+      </c>
+      <c r="D80">
+        <v>0.6865805374205673</v>
+      </c>
+      <c r="E80">
+        <v>0.5431454190629103</v>
+      </c>
+      <c r="F80">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>0.1817542448686149</v>
+      </c>
+      <c r="D81">
+        <v>0.670241954345566</v>
+      </c>
+      <c r="E81">
+        <v>0.5395862340660889</v>
+      </c>
+      <c r="F81">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
